--- a/posesiones/1485993.xlsx
+++ b/posesiones/1485993.xlsx
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>25</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>10</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>31</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>16</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>13</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>8</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>22</v>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>7</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3079,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>18</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>20</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>17</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>16</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>16</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>21</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>11</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>27</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>11</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>13</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>25</v>
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>9</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>8</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R76">
         <v>8</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>8</v>
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83">
         <v>18</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>11</v>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R88">
         <v>7</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R98">
         <v>13</v>
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R99">
         <v>13</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R101">
         <v>15</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R103">
         <v>6</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>15</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>23</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>29</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7287,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7331,10 +7331,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R117">
         <v>25</v>
@@ -7528,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R118">
         <v>10</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R124">
         <v>16</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R130">
         <v>31</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R136">
         <v>17</v>
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R143">
         <v>13</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8839,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R145">
         <v>21</v>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R147">
         <v>19</v>
@@ -8992,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R148">
         <v>11</v>
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>17</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R155">
         <v>20</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R157">
         <v>17</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R160">
         <v>11</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R162">
         <v>13</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9792,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R164">
         <v>8</v>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R165">
         <v>17</v>
@@ -9898,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>10</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10001,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R168">
         <v>8</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10104,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R170">
         <v>18</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10254,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>25</v>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>17</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R176">
         <v>9</v>
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R178">
         <v>12</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R180">
         <v>25</v>
@@ -10666,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R181">
         <v>20</v>
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10816,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R184">
         <v>5</v>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11151,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R191">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>9</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11592,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R200">
         <v>14</v>
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R202">
         <v>18</v>
@@ -11745,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R203">
         <v>24</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11845,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R205">
         <v>23</v>
@@ -11898,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R206">
         <v>13</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12048,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R209">
         <v>16</v>
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12336,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R215">
         <v>10</v>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12439,7 +12439,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R217">
         <v>19</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12542,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R219">
         <v>18</v>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12633,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12777,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12824,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12959,10 +12959,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R229">
         <v>6</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R231">
         <v>16</v>
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R235">
         <v>25</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R242">
         <v>24</v>
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R243">
         <v>13</v>
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R244">
         <v>18</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R245">
         <v>16</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13909,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R247">
         <v>5</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14103,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R251">
         <v>13</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R253">
         <v>12</v>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14303,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R257">
         <v>12</v>
@@ -14456,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>9</v>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R260">
         <v>18</v>
@@ -14612,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R261">
         <v>24</v>
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14762,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R264">
         <v>23</v>
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R265">
         <v>15</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14962,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15009,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15059,7 +15059,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R270">
         <v>15</v>
@@ -15106,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15156,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R272">
         <v>16</v>
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15259,7 +15259,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R274">
         <v>11</v>
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R279">
         <v>15</v>
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R281">
         <v>14</v>
@@ -15656,7 +15656,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R282">
         <v>16</v>
@@ -15709,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R283">
         <v>12</v>
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R285">
         <v>9</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15915,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R287">
         <v>21</v>
@@ -15965,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R289">
         <v>18</v>
@@ -16068,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R290">
         <v>15</v>
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16353,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16450,7 +16450,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R298">
         <v>23</v>
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R300">
         <v>14</v>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R302">
         <v>20</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16991,7 +16991,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R309">
         <v>25</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R314">
         <v>18</v>
@@ -17282,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17332,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17382,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R317">
         <v>6</v>
@@ -17435,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R318">
         <v>16</v>
@@ -17488,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R319">
         <v>16</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R321">
         <v>6</v>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17785,7 +17785,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R325">
         <v>0</v>
@@ -17838,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R326">
         <v>19</v>
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R327">
         <v>20</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17982,10 +17982,10 @@
         <v>1</v>
       </c>
       <c r="P329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q329">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18026,10 +18026,10 @@
         <v>1</v>
       </c>
       <c r="P330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q330">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18076,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18129,7 +18129,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R332">
         <v>18</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18367,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18417,7 +18417,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R338">
         <v>18</v>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18567,7 +18567,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R341">
         <v>26</v>
@@ -18620,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R342">
         <v>17</v>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18952,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19049,7 +19049,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19102,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R352">
         <v>11</v>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19202,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R354">
         <v>4</v>
@@ -19252,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19302,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R356">
         <v>5</v>
@@ -19352,7 +19352,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19402,7 +19402,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R358">
         <v>4</v>
@@ -19452,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19502,7 +19502,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R360">
         <v>9</v>
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19693,7 +19693,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19743,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R365">
         <v>4</v>
@@ -19796,7 +19796,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R366">
         <v>11</v>
@@ -19849,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R370">
         <v>26</v>
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20143,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20193,7 +20193,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R374">
         <v>19</v>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20387,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20434,7 +20434,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20484,7 +20484,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R380">
         <v>13</v>
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20631,7 +20631,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R383">
         <v>30</v>
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20734,7 +20734,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R385">
         <v>7</v>
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20831,7 +20831,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20925,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21022,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R391">
         <v>14</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R395">
         <v>23</v>
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21319,7 +21319,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R397">
         <v>17</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21422,7 +21422,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R399">
         <v>9</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21522,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21572,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21622,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R403">
         <v>17</v>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21907,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21957,7 +21957,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R410">
         <v>20</v>
@@ -22007,7 +22007,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22054,7 +22054,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22104,7 +22104,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R413">
         <v>15</v>
@@ -22157,7 +22157,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22348,7 +22348,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R418">
         <v>20</v>
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22445,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22492,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22633,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22683,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22733,7 +22733,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R426">
         <v>23</v>
@@ -22786,7 +22786,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R427">
         <v>14</v>
@@ -22836,7 +22836,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22933,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23030,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23124,7 +23124,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23171,7 +23171,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23221,7 +23221,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R436">
         <v>6</v>
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23318,7 +23318,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R438">
         <v>19</v>
@@ -23371,7 +23371,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23562,7 +23562,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23609,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23850,7 +23850,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R449">
         <v>19</v>
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23953,7 +23953,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R451">
         <v>8</v>
@@ -24006,7 +24006,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R452">
         <v>18</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R456">
         <v>19</v>
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24297,7 +24297,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R458">
         <v>9</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R460">
         <v>21</v>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R463">
         <v>7</v>
@@ -24600,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24650,7 +24650,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R465">
         <v>21</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24750,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24797,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24894,7 +24894,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R470">
         <v>12</v>
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25088,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25138,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R475">
         <v>2</v>
@@ -25185,7 +25185,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25279,7 +25279,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25373,7 +25373,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25423,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R481">
         <v>6</v>
@@ -25467,10 +25467,10 @@
         <v>1</v>
       </c>
       <c r="P482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q482">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
